--- a/biology/Zoologie/Conus_parascalaris/Conus_parascalaris.xlsx
+++ b/biology/Zoologie/Conus_parascalaris/Conus_parascalaris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conus parascalaris est une espèce de mollusques gastéropodes marins de la famille des Conidae.
 Comme toutes les espèces du genre Conus, ces escargots sont prédateurs et venimeux. Ils sont capables de « piquer » les humains et doivent donc être manipulés avec précaution, voire pas du tout.
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La longueur maximale enregistrée de la coquille est de 23 mm[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La longueur maximale enregistrée de la coquille est de 23 mm. 
 </t>
         </is>
       </c>
@@ -543,12 +557,12 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Locus typicus : « Golfe du Venezuela, au large de Punto Fijo, Falcon, Venezuela »[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Locus typicus : « Golfe du Venezuela, au large de Punto Fijo, Falcon, Venezuela ».
 Cette espèce est présente dans la mer des Caraïbes au large du Venezuela à une profondeur de 35 m.
-Niveau de risque d’extinction de l’espèce
-Selon l'analyse de l'UICN réalisée en 2011 pour la définition du niveau de risque d'extinction, cette espèce s'étend du Panama au Golfo Triste, Venezuela, bien que sa distribution soit incertaine. Il n'y a pas de menaces connues pour cette espèce. Elle est répertoriée comme étant de préoccupation mineure[3].
 </t>
         </is>
       </c>
@@ -574,15 +588,92 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Niveau de risque d’extinction de l’espèce</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon l'analyse de l'UICN réalisée en 2011 pour la définition du niveau de risque d'extinction, cette espèce s'étend du Panama au Golfo Triste, Venezuela, bien que sa distribution soit incertaine. Il n'y a pas de menaces connues pour cette espèce. Elle est répertoriée comme étant de préoccupation mineure.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Conus_parascalaris</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_parascalaris</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Publication originale
-L'espèce Conus parascalaris a été décrite pour la première fois en 1987 par le malacologiste américain Edward James Petuch (d)[4] dans « Charlottesville, Virginia: The Coastal Education and Research Foundation »[5],[6].
-Synonymes
-Conus (Dauciconus) parascalaris Petuch, 1987 · appellation alternative
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Conus parascalaris a été décrite pour la première fois en 1987 par le malacologiste américain Edward James Petuch (d) dans « Charlottesville, Virginia: The Coastal Education and Research Foundation »,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Conus_parascalaris</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_parascalaris</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Conus (Dauciconus) parascalaris Petuch, 1987 · appellation alternative
 Dauciconus parascalaris (Petuch, 1987) · non accepté
 Gradiconus parascalaris (Petuch, 1987) · non accepté</t>
         </is>
